--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +543,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H2">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I2">
         <v>0.9943843705197677</v>
@@ -555,34 +552,34 @@
         <v>0.9943843705197678</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="N2">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="O2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="P2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="Q2">
-        <v>0.05144460283477777</v>
+        <v>0.3494468814527777</v>
       </c>
       <c r="R2">
-        <v>0.4630014255129999</v>
+        <v>3.145021933075</v>
       </c>
       <c r="S2">
-        <v>0.001785131968575762</v>
+        <v>0.01413318922101261</v>
       </c>
       <c r="T2">
-        <v>0.001785131968575762</v>
+        <v>0.01413318922101261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,7 +605,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H3">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I3">
         <v>0.9943843705197677</v>
@@ -629,22 +626,22 @@
         <v>43.730186</v>
       </c>
       <c r="O3">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="P3">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="Q3">
         <v>21.87193920356378</v>
       </c>
       <c r="R3">
-        <v>196.847452832074</v>
+        <v>196.8474528320741</v>
       </c>
       <c r="S3">
-        <v>0.7589580973620095</v>
+        <v>0.8845986952561299</v>
       </c>
       <c r="T3">
-        <v>0.7589580973620097</v>
+        <v>0.88459869525613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,7 +667,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H4">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I4">
         <v>0.9943843705197677</v>
@@ -679,34 +676,34 @@
         <v>0.9943843705197678</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="N4">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="O4">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="P4">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="Q4">
-        <v>0.008293596004222222</v>
+        <v>2.136363709834445</v>
       </c>
       <c r="R4">
-        <v>0.07464236403799999</v>
+        <v>19.22727338851</v>
       </c>
       <c r="S4">
-        <v>0.0002877884665401798</v>
+        <v>0.08640406928363124</v>
       </c>
       <c r="T4">
-        <v>0.0002877884665401799</v>
+        <v>0.08640406928363124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,7 +729,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H5">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I5">
         <v>0.9943843705197677</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="N5">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="O5">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="P5">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="Q5">
-        <v>5.677141519684556</v>
+        <v>0.2054863199106667</v>
       </c>
       <c r="R5">
-        <v>51.09427367716101</v>
+        <v>1.849376879196</v>
       </c>
       <c r="S5">
-        <v>0.1969972797625829</v>
+        <v>0.008310782541693497</v>
       </c>
       <c r="T5">
-        <v>0.1969972797625829</v>
+        <v>0.008310782541693498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,7 +791,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H6">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I6">
         <v>0.9943843705197677</v>
@@ -803,39 +800,39 @@
         <v>0.9943843705197678</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="N6">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="O6">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="P6">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="Q6">
-        <v>0.1023335317363333</v>
+        <v>0.02318325666311111</v>
       </c>
       <c r="R6">
-        <v>0.921001785627</v>
+        <v>0.208649309968</v>
       </c>
       <c r="S6">
-        <v>0.003550982005760488</v>
+        <v>0.0009376342173004279</v>
       </c>
       <c r="T6">
-        <v>0.003550982005760489</v>
+        <v>0.0009376342173004281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -844,25 +841,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.500469666666667</v>
+        <v>0.008473666666666666</v>
       </c>
       <c r="H7">
-        <v>4.501409</v>
+        <v>0.025421</v>
       </c>
       <c r="I7">
-        <v>0.9943843705197677</v>
+        <v>0.005615629480232302</v>
       </c>
       <c r="J7">
-        <v>0.9943843705197678</v>
+        <v>0.005615629480232303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6300623333333333</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="N7">
-        <v>1.890187</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="O7">
-        <v>0.03299035255064547</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="P7">
-        <v>0.03299035255064547</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="Q7">
-        <v>0.9453894192758887</v>
+        <v>0.001973446352777777</v>
       </c>
       <c r="R7">
-        <v>8.508504773482999</v>
+        <v>0.017761017175</v>
       </c>
       <c r="S7">
-        <v>0.03280509095429882</v>
+        <v>7.981496531138614E-05</v>
       </c>
       <c r="T7">
-        <v>0.03280509095429882</v>
+        <v>7.981496531138616E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,40 +918,40 @@
         <v>0.025421</v>
       </c>
       <c r="I8">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J8">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J8">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.03428566666666667</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="N8">
-        <v>0.102857</v>
+        <v>43.730186</v>
       </c>
       <c r="O8">
-        <v>0.001795213220862138</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="P8">
-        <v>0.001795213220862138</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="Q8">
-        <v>0.0002905253107777777</v>
+        <v>0.1235183398117778</v>
       </c>
       <c r="R8">
-        <v>0.002614727797</v>
+        <v>1.111665058306</v>
       </c>
       <c r="S8">
-        <v>1.00812522863762E-05</v>
+        <v>0.004995632130318767</v>
       </c>
       <c r="T8">
-        <v>1.008125228637621E-05</v>
+        <v>0.004995632130318769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,11 +980,11 @@
         <v>0.025421</v>
       </c>
       <c r="I9">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J9">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J9">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K9">
         <v>3</v>
       </c>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.57672866666667</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="N9">
-        <v>43.730186</v>
+        <v>4.27139</v>
       </c>
       <c r="O9">
-        <v>0.7632441939582174</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="P9">
-        <v>0.7632441939582175</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="Q9">
-        <v>0.1235183398117778</v>
+        <v>0.01206477835444444</v>
       </c>
       <c r="R9">
-        <v>1.111665058306</v>
+        <v>0.10858300519</v>
       </c>
       <c r="S9">
-        <v>0.004286096596207907</v>
+        <v>0.0004879534042028149</v>
       </c>
       <c r="T9">
-        <v>0.004286096596207909</v>
+        <v>0.0004879534042028151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1042,40 @@
         <v>0.025421</v>
       </c>
       <c r="I10">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J10">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J10">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.005527333333333333</v>
+        <v>0.136948</v>
       </c>
       <c r="N10">
-        <v>0.016582</v>
+        <v>0.410844</v>
       </c>
       <c r="O10">
-        <v>0.0002894137066834145</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="P10">
-        <v>0.0002894137066834146</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="Q10">
-        <v>4.683678022222221E-05</v>
+        <v>0.001160451702666666</v>
       </c>
       <c r="R10">
-        <v>0.000421531022</v>
+        <v>0.010444065324</v>
       </c>
       <c r="S10">
-        <v>1.625240143234687E-06</v>
+        <v>4.693383849199003E-05</v>
       </c>
       <c r="T10">
-        <v>1.625240143234688E-06</v>
+        <v>4.693383849199003E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,164 +1104,40 @@
         <v>0.025421</v>
       </c>
       <c r="I11">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J11">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J11">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>3.783576333333334</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="N11">
-        <v>11.350729</v>
+        <v>0.046352</v>
       </c>
       <c r="O11">
-        <v>0.1981097909449359</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="P11">
-        <v>0.1981097909449359</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="Q11">
-        <v>0.03206076465655556</v>
+        <v>0.0001309237991111111</v>
       </c>
       <c r="R11">
-        <v>0.288546881909</v>
+        <v>0.001178314192</v>
       </c>
       <c r="S11">
-        <v>0.001112511182353041</v>
+        <v>5.295141907343717E-06</v>
       </c>
       <c r="T11">
-        <v>0.001112511182353041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.008473666666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.025421</v>
-      </c>
-      <c r="I12">
-        <v>0.005615629480232303</v>
-      </c>
-      <c r="J12">
-        <v>0.005615629480232304</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.068201</v>
-      </c>
-      <c r="N12">
-        <v>0.204603</v>
-      </c>
-      <c r="O12">
-        <v>0.00357103561865557</v>
-      </c>
-      <c r="P12">
-        <v>0.003571035618655571</v>
-      </c>
-      <c r="Q12">
-        <v>0.0005779125403333333</v>
-      </c>
-      <c r="R12">
-        <v>0.005201212863</v>
-      </c>
-      <c r="S12">
-        <v>2.005361289508182E-05</v>
-      </c>
-      <c r="T12">
-        <v>2.005361289508183E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.008473666666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.025421</v>
-      </c>
-      <c r="I13">
-        <v>0.005615629480232303</v>
-      </c>
-      <c r="J13">
-        <v>0.005615629480232304</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.890187</v>
-      </c>
-      <c r="O13">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="P13">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="Q13">
-        <v>0.005338938191888888</v>
-      </c>
-      <c r="R13">
-        <v>0.04805044372699999</v>
-      </c>
-      <c r="S13">
-        <v>0.0001852615963466617</v>
-      </c>
-      <c r="T13">
-        <v>0.0001852615963466617</v>
+        <v>5.295141907343718E-06</v>
       </c>
     </row>
   </sheetData>
